--- a/datas/likes.xlsx
+++ b/datas/likes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarvar\Desktop\INHA\5th Semester\database design\team_project\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F27172-4E3D-423C-8CF8-AA74D100CE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3ECD62-7193-4F5D-865B-C8E50ED8F421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4425" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4591" uniqueCount="1014">
   <si>
     <t>song_id</t>
   </si>
@@ -3404,10 +3404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2212"/>
+  <dimension ref="A1:C2295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2175" workbookViewId="0">
-      <selection activeCell="H2188" sqref="H2188"/>
+    <sheetView tabSelected="1" topLeftCell="A2196" workbookViewId="0">
+      <selection activeCell="C2211" sqref="C2211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27749,6 +27749,919 @@
         <v>872</v>
       </c>
     </row>
+    <row r="2213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2213">
+        <v>64</v>
+      </c>
+      <c r="B2213" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2213" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2214">
+        <v>64</v>
+      </c>
+      <c r="B2214" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2214" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2215">
+        <v>64</v>
+      </c>
+      <c r="B2215" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2215" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2216">
+        <v>64</v>
+      </c>
+      <c r="B2216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2216" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2217">
+        <v>64</v>
+      </c>
+      <c r="B2217" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2217" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2218">
+        <v>64</v>
+      </c>
+      <c r="B2218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2218" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2219">
+        <v>64</v>
+      </c>
+      <c r="B2219" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2219" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2220">
+        <v>64</v>
+      </c>
+      <c r="B2220" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2220" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2221">
+        <v>64</v>
+      </c>
+      <c r="B2221" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2221" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2222">
+        <v>64</v>
+      </c>
+      <c r="B2222" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2222" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2223">
+        <v>64</v>
+      </c>
+      <c r="B2223" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2223" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2224">
+        <v>64</v>
+      </c>
+      <c r="B2224" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2224" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2225">
+        <v>64</v>
+      </c>
+      <c r="B2225" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2225" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2226">
+        <v>64</v>
+      </c>
+      <c r="B2226" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2226" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2227">
+        <v>64</v>
+      </c>
+      <c r="B2227" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2227" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2228">
+        <v>64</v>
+      </c>
+      <c r="B2228" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2228" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2229">
+        <v>64</v>
+      </c>
+      <c r="B2229" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2229" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2230">
+        <v>64</v>
+      </c>
+      <c r="B2230" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2230" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2231">
+        <v>64</v>
+      </c>
+      <c r="B2231" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2231" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2232">
+        <v>64</v>
+      </c>
+      <c r="B2232" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2232" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2233">
+        <v>64</v>
+      </c>
+      <c r="B2233" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2233" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2234">
+        <v>64</v>
+      </c>
+      <c r="B2234" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2234" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2235">
+        <v>64</v>
+      </c>
+      <c r="B2235" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2235" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2236">
+        <v>64</v>
+      </c>
+      <c r="B2236" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2236" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2237">
+        <v>64</v>
+      </c>
+      <c r="B2237" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2237" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2238">
+        <v>64</v>
+      </c>
+      <c r="B2238" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2238" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2239">
+        <v>64</v>
+      </c>
+      <c r="B2239" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2239" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2240">
+        <v>64</v>
+      </c>
+      <c r="B2240" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2240" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2241">
+        <v>64</v>
+      </c>
+      <c r="B2241" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2241" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2242">
+        <v>64</v>
+      </c>
+      <c r="B2242" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2242" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2243">
+        <v>64</v>
+      </c>
+      <c r="B2243" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2243" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2244">
+        <v>64</v>
+      </c>
+      <c r="B2244" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2244" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2245">
+        <v>64</v>
+      </c>
+      <c r="B2245" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2245" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2246">
+        <v>64</v>
+      </c>
+      <c r="B2246" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2246" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2247">
+        <v>64</v>
+      </c>
+      <c r="B2247" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2247" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2248">
+        <v>64</v>
+      </c>
+      <c r="B2248" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2248" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2249">
+        <v>64</v>
+      </c>
+      <c r="B2249" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2249" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2250">
+        <v>64</v>
+      </c>
+      <c r="B2250" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2250" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2251">
+        <v>64</v>
+      </c>
+      <c r="B2251" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2251" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2252">
+        <v>64</v>
+      </c>
+      <c r="B2252" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2252" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2253">
+        <v>64</v>
+      </c>
+      <c r="B2253" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2253" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2254">
+        <v>64</v>
+      </c>
+      <c r="B2254" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2254" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2255">
+        <v>64</v>
+      </c>
+      <c r="B2255" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2255" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2256">
+        <v>64</v>
+      </c>
+      <c r="B2256" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2256" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2257">
+        <v>64</v>
+      </c>
+      <c r="B2257" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2257" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2258">
+        <v>64</v>
+      </c>
+      <c r="B2258" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2258" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2259">
+        <v>64</v>
+      </c>
+      <c r="B2259" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2259" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2260">
+        <v>64</v>
+      </c>
+      <c r="B2260" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2260" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2261">
+        <v>64</v>
+      </c>
+      <c r="B2261" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2261" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2262">
+        <v>64</v>
+      </c>
+      <c r="B2262" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2262" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2263">
+        <v>64</v>
+      </c>
+      <c r="B2263" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2263" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2264">
+        <v>64</v>
+      </c>
+      <c r="B2264" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2264" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2265">
+        <v>64</v>
+      </c>
+      <c r="B2265" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2265" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2266">
+        <v>64</v>
+      </c>
+      <c r="B2266" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2266" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2267">
+        <v>64</v>
+      </c>
+      <c r="B2267" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2267" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2268">
+        <v>64</v>
+      </c>
+      <c r="B2268" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2268" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2269">
+        <v>64</v>
+      </c>
+      <c r="B2269" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2269" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2270">
+        <v>64</v>
+      </c>
+      <c r="B2270" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2270" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2271">
+        <v>64</v>
+      </c>
+      <c r="B2271" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2271" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2272">
+        <v>64</v>
+      </c>
+      <c r="B2272" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2272" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2273">
+        <v>64</v>
+      </c>
+      <c r="B2273" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2273" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2274">
+        <v>64</v>
+      </c>
+      <c r="B2274" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2274" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2275">
+        <v>64</v>
+      </c>
+      <c r="B2275" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2275" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2276">
+        <v>64</v>
+      </c>
+      <c r="B2276" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2276" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2277">
+        <v>64</v>
+      </c>
+      <c r="B2277" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2277" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2278">
+        <v>64</v>
+      </c>
+      <c r="B2278" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2278" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2279">
+        <v>64</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2279" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2280">
+        <v>64</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2280" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2281">
+        <v>64</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2281" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2282">
+        <v>64</v>
+      </c>
+      <c r="B2282" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2282" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2283">
+        <v>64</v>
+      </c>
+      <c r="B2283" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2283" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2284">
+        <v>64</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2284" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2285">
+        <v>64</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2285" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2286">
+        <v>64</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2286" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2287">
+        <v>64</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2287" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2288">
+        <v>64</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2288" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2289">
+        <v>64</v>
+      </c>
+      <c r="B2289" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2289" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2290">
+        <v>64</v>
+      </c>
+      <c r="B2290" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2290" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2291">
+        <v>64</v>
+      </c>
+      <c r="B2291" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2291" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2292">
+        <v>64</v>
+      </c>
+      <c r="B2292" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2292" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2293">
+        <v>64</v>
+      </c>
+      <c r="B2293" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2293" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2294">
+        <v>64</v>
+      </c>
+      <c r="B2294" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2294" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2295">
+        <v>64</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2295" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
